--- a/indicadores/tablas/320104.xlsx
+++ b/indicadores/tablas/320104.xlsx
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -737,7 +737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/320104.xlsx
+++ b/indicadores/tablas/320104.xlsx
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -737,7 +737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/320104.xlsx
+++ b/indicadores/tablas/320104.xlsx
@@ -135,7 +135,7 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el gasto público anual en seguridad social por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población    .</t>
+    <t xml:space="preserve">El indicador mide el gasto público anual en seguridad social por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población.</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>

--- a/indicadores/tablas/320104.xlsx
+++ b/indicadores/tablas/320104.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,145 +21,163 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990</t>
   </si>
   <si>
-    <t xml:space="preserve">1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasto público anual per cápita en seguridad social (en USD constantes de 2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Seguridad Social</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Gasto público anual per cápita en seguridad social</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasto público anual per cápita en seguridad social (en USD constantes de 2010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas Públicas y Esfuerzo Económico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el gasto público anual en seguridad social por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Gasto público en seguridad social / Cantidad de habitantes)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Políticas Públicas y Esfuerzo Económico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
   </si>
   <si>
     <t xml:space="preserve">UMAD con base en datos  y estadísticas de CEPAL en base a OPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -478,12 +496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -498,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>272</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>327</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>405</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>490</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>594</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="7">
@@ -538,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>604</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="8">
@@ -546,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>706</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="9">
@@ -554,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>774</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>812</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>523</v>
+        <v>967.2</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>536</v>
+        <v>915.2</v>
       </c>
     </row>
     <row r="13">
@@ -586,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>528</v>
+        <v>905.5</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>489</v>
+        <v>837.9</v>
       </c>
     </row>
     <row r="15">
@@ -602,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>413</v>
+        <v>799.6</v>
       </c>
     </row>
     <row r="16">
@@ -610,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>351</v>
+        <v>756.7</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>352</v>
+        <v>751.1</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>623</v>
+        <v>423.7</v>
       </c>
     </row>
     <row r="19">
@@ -634,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>628</v>
+        <v>422.7</v>
       </c>
     </row>
     <row r="20">
@@ -642,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>663</v>
+        <v>509.3</v>
       </c>
     </row>
     <row r="21">
@@ -650,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>694</v>
+        <v>594.4</v>
       </c>
     </row>
     <row r="22">
@@ -658,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>750</v>
+        <v>609.2</v>
       </c>
     </row>
     <row r="23">
@@ -666,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>758</v>
+        <v>615.2</v>
       </c>
     </row>
     <row r="24">
@@ -674,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>800</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>852</v>
+        <v>929.1</v>
       </c>
     </row>
     <row r="26">
@@ -690,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>863</v>
+        <v>909.8</v>
       </c>
     </row>
     <row r="27">
@@ -698,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>948</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="28">
@@ -706,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>1006</v>
+        <v>710.1</v>
       </c>
     </row>
     <row r="29">
@@ -714,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>1097</v>
+        <v>698.3</v>
       </c>
     </row>
     <row r="30">
@@ -722,7 +740,31 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>1143</v>
+        <v>576.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>476.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>384.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>319.6</v>
       </c>
     </row>
   </sheetData>
@@ -732,75 +774,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/320104.xlsx
+++ b/indicadores/tablas/320104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,12 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -117,16 +123,13 @@
     <t xml:space="preserve">1990</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">nomindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">Gasto público anual per cápita en seguridad social (en USD constantes de 2010)</t>
+    <t xml:space="preserve">Gasto público anual per cápita en protección social (en USD constantes de 2010)</t>
   </si>
   <si>
     <t xml:space="preserve">derecho</t>
@@ -138,7 +141,7 @@
     <t xml:space="preserve">conindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">Gasto público anual per cápita en seguridad social</t>
+    <t xml:space="preserve">Gasto público anual per cápita en protección social</t>
   </si>
   <si>
     <t xml:space="preserve">tipoind</t>
@@ -163,6 +166,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
@@ -516,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1292</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1355</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1359</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="6">
@@ -548,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1323</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1216</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1146</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="9">
@@ -572,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1044</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="10">
@@ -580,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1030</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="11">
@@ -588,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>967.2</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>915.2</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13">
@@ -604,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>905.5</v>
+        <v>981.4</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>837.9</v>
+        <v>928.5</v>
       </c>
     </row>
     <row r="15">
@@ -620,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>799.6</v>
+        <v>918.4</v>
       </c>
     </row>
     <row r="16">
@@ -628,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>756.7</v>
+        <v>849.6</v>
       </c>
     </row>
     <row r="17">
@@ -636,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>751.1</v>
+        <v>810.5</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>423.7</v>
+        <v>766.7</v>
       </c>
     </row>
     <row r="19">
@@ -652,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>422.7</v>
+        <v>761.1</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>509.3</v>
+        <v>429.5</v>
       </c>
     </row>
     <row r="21">
@@ -668,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>594.4</v>
+        <v>428.9</v>
       </c>
     </row>
     <row r="22">
@@ -676,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>609.2</v>
+        <v>517.6</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>615.2</v>
+        <v>605.3</v>
       </c>
     </row>
     <row r="24">
@@ -692,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>598</v>
+        <v>621.3</v>
       </c>
     </row>
     <row r="25">
@@ -700,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>929.1</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26">
@@ -708,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>909.8</v>
+        <v>610.7</v>
       </c>
     </row>
     <row r="27">
@@ -716,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>830.3</v>
+        <v>948.7</v>
       </c>
     </row>
     <row r="28">
@@ -724,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>710.1</v>
+        <v>928.1</v>
       </c>
     </row>
     <row r="29">
@@ -732,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>698.3</v>
+        <v>845.9</v>
       </c>
     </row>
     <row r="30">
@@ -740,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>576.9</v>
+        <v>722.5</v>
       </c>
     </row>
     <row r="31">
@@ -748,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>476.5</v>
+        <v>709.4</v>
       </c>
     </row>
     <row r="32">
@@ -756,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>384.5</v>
+        <v>585.1</v>
       </c>
     </row>
     <row r="33">
@@ -764,7 +773,23 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>319.6</v>
+        <v>482.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>388.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>322.8</v>
       </c>
     </row>
   </sheetData>
@@ -783,82 +808,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
